--- a/virginia/data/data.xlsx
+++ b/virginia/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D2723-E818-2649-A403-DB3406B4517D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE01BE5-8A97-5446-828D-180A72A608A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="224">
   <si>
     <t>connection</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>https://www.eia.gov/state/?sid=VA#tabs-2</t>
+  </si>
+  <si>
+    <t>https://github.com/coopercenter/EO43/</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1128,7 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1173,15 +1176,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1375,6 +1381,7 @@
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="C4" r:id="rId12" location="tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{00BEBD39-0F02-B14B-8DD4-4A7E54E26B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5963,7 +5970,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6768,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/virginia/data/data.xlsx
+++ b/virginia/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE01BE5-8A97-5446-828D-180A72A608A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CFB8F-7531-4660-AED0-28542FE41559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -30,12 +30,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
   <si>
     <t>connection</t>
   </si>
@@ -487,6 +493,9 @@
     <t>Plant13</t>
   </si>
   <si>
+    <t>Siemens PTI Report, p227</t>
+  </si>
+  <si>
     <t>PREPA 2017 Report</t>
   </si>
   <si>
@@ -698,15 +707,6 @@
   </si>
   <si>
     <t>[fr]</t>
-  </si>
-  <si>
-    <t>10% discount rate Virginia</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/state/?sid=VA#tabs-2</t>
-  </si>
-  <si>
-    <t>https://github.com/coopercenter/EO43/</t>
   </si>
 </sst>
 </file>
@@ -1117,18 +1117,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1168,203 +1168,200 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1380,8 +1377,6 @@
     <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId12" location="tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
-    <hyperlink ref="G4" r:id="rId13" xr:uid="{00BEBD39-0F02-B14B-8DD4-4A7E54E26B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1391,18 +1386,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1425,13 +1420,13 @@
         <v>128</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -1457,15 +1452,15 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>105</v>
@@ -1486,12 +1481,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>105</v>
@@ -1512,12 +1507,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>105</v>
@@ -1538,12 +1533,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>105</v>
@@ -1564,12 +1559,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>105</v>
@@ -1590,12 +1585,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>105</v>
@@ -1616,7 +1611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1642,12 +1637,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>105</v>
@@ -1668,12 +1663,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>105</v>
@@ -1694,7 +1689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -1772,7 +1767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -1798,12 +1793,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>105</v>
@@ -1824,12 +1819,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>105</v>
@@ -1850,12 +1845,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>105</v>
@@ -1876,12 +1871,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>105</v>
@@ -1902,12 +1897,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>105</v>
@@ -1928,7 +1923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2006,7 +2001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2032,12 +2027,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>102</v>
@@ -2058,12 +2053,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>102</v>
@@ -2084,7 +2079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2110,7 +2105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2157,21 +2152,21 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -2229,7 +2224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2254,7 +2249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2277,7 +2272,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2300,7 +2295,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2323,7 +2318,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2346,7 +2341,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2369,7 +2364,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2419,7 +2414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2452,13 +2447,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2466,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2477,13 +2472,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2491,10 +2486,10 @@
         <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2514,10 +2509,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -2525,13 +2520,13 @@
         <v>56</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="22">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -2539,24 +2534,24 @@
         <v>45</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B16" s="22">
         <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -2564,24 +2559,24 @@
         <v>75</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="22">
         <v>87</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D17" s="25">
         <v>51.7</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -2589,24 +2584,24 @@
         <v>55</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="22">
         <v>87</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D18" s="25">
         <v>51.7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -2614,10 +2609,10 @@
         <v>55</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -2625,7 +2620,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="22">
         <v>62.02</v>
@@ -2639,10 +2634,10 @@
         <v>55</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -2650,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" s="22">
         <v>42.47</v>
@@ -2664,10 +2659,10 @@
         <v>55</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -2675,13 +2670,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -2689,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -2700,13 +2695,13 @@
         <v>31</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -2714,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2729,7 +2724,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2737,10 +2732,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2748,13 +2743,13 @@
         <v>56</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D24" s="6">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
@@ -2762,18 +2757,18 @@
         <v>45</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="10">
         <v>87</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D25" s="9">
         <v>54.17</v>
@@ -2787,10 +2782,10 @@
         <v>55</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2798,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D26" s="9">
         <v>37.6</v>
@@ -2812,10 +2807,10 @@
         <v>55</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2823,13 +2818,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
@@ -2837,10 +2832,10 @@
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2848,13 +2843,13 @@
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
@@ -2862,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2879,18 +2874,18 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2936,7 +2931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2955,7 +2950,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2993,7 +2988,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3012,7 +3007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3050,7 +3045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3058,22 +3053,22 @@
         <v>3935</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D9" s="12">
         <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3106,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -3121,16 +3116,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -3140,16 +3135,16 @@
         <v>42</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" s="27">
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -3157,22 +3152,22 @@
         <v>1284</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D14" s="23">
         <v>32.1</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="23">
         <v>0</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -3180,47 +3175,47 @@
         <v>3749</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="23">
         <v>112</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" s="23">
         <v>1.67</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B16" s="23">
         <v>3644</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D16" s="23">
         <v>33</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="23">
         <v>1.39</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="23">
         <v>952</v>
@@ -3230,18 +3225,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="23">
         <v>11.33</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="23">
         <v>952</v>
@@ -3251,16 +3246,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F18" s="23">
         <v>11.33</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -3274,16 +3269,16 @@
         <v>11</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F19" s="23">
         <v>0.83299999999999996</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -3297,16 +3292,16 @@
         <v>12</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" s="23">
         <v>1.944</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -3314,22 +3309,22 @@
         <v>1060</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D21" s="23">
         <v>13</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" s="23">
         <v>0</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -3337,22 +3332,22 @@
         <v>1494</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D22" s="23">
         <v>42</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F22" s="23">
         <v>0</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3360,22 +3355,22 @@
         <v>1284</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7">
         <v>32.1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3383,24 +3378,24 @@
         <v>3749</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D24" s="7">
         <v>112</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F24" s="27">
         <v>1.67</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="7">
         <v>860.9</v>
@@ -3412,16 +3407,16 @@
         <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F25" s="27">
         <v>0.83299999999999996</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -3435,16 +3430,16 @@
         <v>12</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" s="27">
         <v>1.944</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3452,22 +3447,22 @@
         <v>1060</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" s="7">
         <v>13</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3475,22 +3470,22 @@
         <v>1494</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D28" s="7">
         <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3510,18 +3505,18 @@
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3544,7 +3539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3567,7 +3562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3578,7 +3573,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3600,7 +3595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3611,7 +3606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3633,7 +3628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3646,35 +3641,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -3685,7 +3680,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -3700,9 +3695,9 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B16" s="25">
         <v>0.01</v>
@@ -3715,9 +3710,9 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="25">
         <v>0.93</v>
@@ -3730,9 +3725,9 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="25">
         <v>0.93</v>
@@ -3745,7 +3740,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -3760,7 +3755,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -3771,7 +3766,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -3784,7 +3779,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -3797,12 +3792,12 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3813,9 +3808,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -3824,12 +3819,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3859,14 +3854,14 @@
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3894,7 +3889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3922,7 +3917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3936,7 +3931,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3950,7 +3945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3964,7 +3959,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3978,7 +3973,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3992,7 +3987,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -4006,7 +4001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -4048,7 +4043,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -4062,7 +4057,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -4076,7 +4071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -4104,7 +4099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -4118,7 +4113,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -4132,7 +4127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -4146,7 +4141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -4160,7 +4155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -4174,7 +4169,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -4202,7 +4197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -4244,14 +4239,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4267,7 +4262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4285,15 +4280,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4304,13 +4299,13 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4327,7 +4322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -4335,7 +4330,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4344,7 +4339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -4352,7 +4347,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4361,7 +4356,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -4369,7 +4364,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4378,7 +4373,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -4386,7 +4381,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4395,7 +4390,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -4403,7 +4398,7 @@
         <v>83</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4412,7 +4407,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -4420,7 +4415,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4429,7 +4424,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -4437,7 +4432,7 @@
         <v>83</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4446,7 +4441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4463,7 +4458,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
@@ -4480,7 +4475,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -4497,7 +4492,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -4514,7 +4509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -4531,7 +4526,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -4582,7 +4577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -4616,7 +4611,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4633,7 +4628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -4650,7 +4645,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -4667,7 +4662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4684,7 +4679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4701,7 +4696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4718,7 +4713,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4735,7 +4730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4752,7 +4747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4760,7 +4755,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4769,7 +4764,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4786,7 +4781,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4794,7 +4789,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4803,7 +4798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4820,7 +4815,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>84</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4837,7 +4832,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4845,7 +4840,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4854,7 +4849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4862,7 +4857,7 @@
         <v>84</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
@@ -4871,7 +4866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
@@ -4888,7 +4883,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4956,7 +4951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4973,7 +4968,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -5007,7 +5002,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5024,7 +5019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -5058,7 +5053,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5075,7 +5070,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5092,7 +5087,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -5126,7 +5121,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5143,7 +5138,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -5151,7 +5146,7 @@
         <v>83</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5160,7 +5155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
@@ -5177,7 +5172,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -5185,7 +5180,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
@@ -5194,7 +5189,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -5202,7 +5197,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
@@ -5211,7 +5206,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -5219,7 +5214,7 @@
         <v>83</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
@@ -5228,7 +5223,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -5236,7 +5231,7 @@
         <v>83</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
@@ -5245,7 +5240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -5253,7 +5248,7 @@
         <v>83</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
@@ -5262,7 +5257,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -5270,7 +5265,7 @@
         <v>83</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
@@ -5279,7 +5274,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -5287,7 +5282,7 @@
         <v>83</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
@@ -5296,7 +5291,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -5313,7 +5308,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -5330,7 +5325,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -5364,7 +5359,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -5381,7 +5376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -5415,7 +5410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -5432,7 +5427,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -5483,7 +5478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -5500,7 +5495,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -5517,7 +5512,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -5534,7 +5529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -5551,7 +5546,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -5559,7 +5554,7 @@
         <v>84</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5568,7 +5563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -5576,7 +5571,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
@@ -5585,7 +5580,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -5593,7 +5588,7 @@
         <v>84</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
@@ -5602,7 +5597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
@@ -5619,7 +5614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -5627,7 +5622,7 @@
         <v>84</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
@@ -5636,7 +5631,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -5644,7 +5639,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
@@ -5653,7 +5648,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
@@ -5670,7 +5665,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5678,7 +5673,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
@@ -5687,7 +5682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
@@ -5704,7 +5699,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5721,7 +5716,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5755,7 +5750,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5789,7 +5784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5806,7 +5801,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5823,7 +5818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5840,7 +5835,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5857,7 +5852,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5891,7 +5886,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5908,7 +5903,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5925,7 +5920,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5942,7 +5937,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5969,28 +5964,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5998,10 +5991,10 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -6012,7 +6005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6036,24 +6029,24 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6061,12 +6054,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>3.9199999999999999E-2</v>
@@ -6075,9 +6068,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4">
         <v>3.7499999999999999E-2</v>
@@ -6086,9 +6079,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <v>3.6400000000000002E-2</v>
@@ -6097,9 +6090,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6">
         <v>3.5700000000000003E-2</v>
@@ -6108,9 +6101,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7">
         <v>3.5700000000000003E-2</v>
@@ -6119,9 +6112,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8">
         <v>3.6900000000000002E-2</v>
@@ -6130,9 +6123,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9">
         <v>3.8600000000000002E-2</v>
@@ -6141,9 +6134,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>3.85E-2</v>
@@ -6152,9 +6145,9 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11">
         <v>4.0500000000000001E-2</v>
@@ -6163,7 +6156,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6174,7 +6167,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6185,7 +6178,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6196,7 +6189,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6207,7 +6200,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6218,7 +6211,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6229,7 +6222,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -6240,7 +6233,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6251,7 +6244,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6262,7 +6255,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -6273,7 +6266,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -6284,7 +6277,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6295,7 +6288,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6306,7 +6299,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -6317,7 +6310,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6338,23 +6331,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6389,7 +6382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6424,7 +6417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6432,7 +6425,7 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -6450,21 +6443,21 @@
         <v>2084.1332580463013</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J3">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
@@ -6481,24 +6474,24 @@
         <v>688.39634941329859</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -6516,21 +6509,21 @@
         <v>323.88212908717634</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J5">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -6539,28 +6532,28 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1">
         <v>539.80354847862725</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J6">
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -6568,7 +6561,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6577,47 +6570,47 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H8">
         <v>4531.3620000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
@@ -6629,36 +6622,36 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H9">
         <v>7746.9369999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6670,18 +6663,18 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6693,18 +6686,18 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6716,18 +6709,18 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6739,18 +6732,18 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6762,7 +6755,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6775,17 +6768,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6813,7 +6806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6827,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6841,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6855,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2031</v>
       </c>
@@ -6869,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2036</v>
       </c>
@@ -6883,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2041</v>
       </c>
@@ -6911,13 +6904,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6931,7 +6924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6945,7 +6938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6956,12 +6949,12 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4">
         <v>3068</v>
@@ -6970,12 +6963,12 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>2853</v>
@@ -6984,12 +6977,12 @@
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>2853</v>
@@ -6998,7 +6991,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7012,16 +7005,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -7029,7 +7022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7037,9 +7030,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -7058,21 +7051,21 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7107,10 +7100,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7139,16 +7132,16 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7172,10 +7165,10 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7201,10 +7194,10 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7230,10 +7223,10 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -7244,10 +7237,10 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7264,10 +7257,10 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -7293,10 +7286,10 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -7325,10 +7318,10 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7339,10 +7332,10 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7353,7 +7346,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7370,12 +7363,12 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7389,7 +7382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7403,7 +7396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
